--- a/data/trans_orig/Q64D_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/Q64D_R-Habitat-trans_orig.xlsx
@@ -534,7 +534,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población según el número de minutos que tarda en desplazarse para ir a trabajar</t>
+          <t>Número medio de minutos que utilizan en todos sus desplazamientos para ir a trabajar</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>4,56; 8,48</t>
+          <t>4,55; 8,36</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>6,01; 13,2</t>
+          <t>5,93; 13,44</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>6,99; 12,4</t>
+          <t>6,97; 12,32</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>13,21; 21,66</t>
+          <t>13,05; 21,49</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>4,77; 10,2</t>
+          <t>4,58; 10,25</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>5,51; 10,94</t>
+          <t>5,67; 10,84</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>5,07; 10,71</t>
+          <t>4,91; 9,95</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>14,75; 26,72</t>
+          <t>14,49; 25,72</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>4,93; 8,2</t>
+          <t>4,91; 8,06</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>6,56; 11,09</t>
+          <t>6,09; 11,48</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>6,7; 10,26</t>
+          <t>6,63; 10,29</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>14,98; 22,11</t>
+          <t>14,91; 21,76</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>8,26; 14,91</t>
+          <t>8,41; 15,72</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>5,99; 10,68</t>
+          <t>5,92; 10,62</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>9,85; 17,48</t>
+          <t>9,65; 17,25</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>5,05; 22,11</t>
+          <t>4,82; 22,03</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>7,47; 12,9</t>
+          <t>7,51; 12,92</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>5,12; 10,19</t>
+          <t>5,15; 10,22</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>7,52; 12,38</t>
+          <t>7,28; 12,25</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>12,77; 18,39</t>
+          <t>12,8; 18,44</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>8,55; 13,35</t>
+          <t>8,86; 13,59</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>6,07; 9,14</t>
+          <t>6,08; 9,22</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>9,23; 13,95</t>
+          <t>9,53; 14,25</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>6,05; 19,06</t>
+          <t>6,71; 19,24</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>8,03; 12,85</t>
+          <t>8,08; 13,01</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>8,28; 15,1</t>
+          <t>7,77; 14,45</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>5,88; 10,48</t>
+          <t>5,96; 10,64</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>9,82; 16,83</t>
+          <t>10,36; 17,04</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>6,48; 11,87</t>
+          <t>6,43; 11,78</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>6,42; 12,9</t>
+          <t>6,12; 12,29</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>5,3; 9,28</t>
+          <t>5,42; 9,5</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>10,79; 16,05</t>
+          <t>10,8; 16,36</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>8,06; 11,9</t>
+          <t>7,94; 11,74</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>7,97; 12,61</t>
+          <t>8,05; 12,82</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>6,14; 9,21</t>
+          <t>6,05; 9,22</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>11,34; 15,46</t>
+          <t>11,1; 15,42</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>9,16; 14,21</t>
+          <t>9,18; 14,59</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>6,73; 10,86</t>
+          <t>6,87; 11,21</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>7,21; 12,12</t>
+          <t>7,56; 12,28</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>17,78; 25,08</t>
+          <t>17,93; 25,47</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>6,23; 10,32</t>
+          <t>6,34; 10,69</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>7,68; 12,84</t>
+          <t>7,63; 12,94</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>11,84; 19,8</t>
+          <t>11,66; 19,83</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>9,41; 21,33</t>
+          <t>8,77; 21,28</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>8,47; 11,87</t>
+          <t>8,44; 12,0</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>7,53; 10,99</t>
+          <t>7,74; 10,71</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>10,25; 14,71</t>
+          <t>10,15; 14,79</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>14,28; 21,94</t>
+          <t>13,97; 21,62</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>8,81; 11,6</t>
+          <t>8,71; 11,53</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>7,66; 10,4</t>
+          <t>7,65; 10,43</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>8,71; 11,74</t>
+          <t>8,55; 11,4</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>8,75; 19,25</t>
+          <t>9,74; 19,33</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>7,32; 9,86</t>
+          <t>7,39; 9,9</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>7,17; 10,01</t>
+          <t>7,25; 9,98</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>8,88; 12,06</t>
+          <t>8,85; 12,15</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>13,07; 18,07</t>
+          <t>13,08; 17,92</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>8,59; 10,51</t>
+          <t>8,51; 10,64</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>7,86; 9,76</t>
+          <t>7,72; 9,69</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>9,01; 11,26</t>
+          <t>9,23; 11,32</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>12,01; 17,92</t>
+          <t>11,73; 17,89</t>
         </is>
       </c>
     </row>
